--- a/config_12.15/game_module_config_cjj.xlsx
+++ b/config_12.15/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="920">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3821,6 +3821,80 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>饺子换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3986,7 +4060,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4120,6 +4194,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4399,13 +4479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
+      <selection pane="bottomRight" activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4418,6 +4498,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -12063,6 +12144,60 @@
       </c>
       <c r="I301" s="44" t="s">
         <v>911</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="7">
+        <v>301</v>
+      </c>
+      <c r="B302" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="C302" s="46" t="s">
+        <v>913</v>
+      </c>
+      <c r="D302" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="E302" s="2">
+        <v>1</v>
+      </c>
+      <c r="F302" s="2">
+        <v>1</v>
+      </c>
+      <c r="G302" s="2">
+        <v>1</v>
+      </c>
+      <c r="H302" s="2"/>
+      <c r="I302" s="46" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="7">
+        <v>302</v>
+      </c>
+      <c r="B303" s="45" t="s">
+        <v>916</v>
+      </c>
+      <c r="C303" s="46" t="s">
+        <v>917</v>
+      </c>
+      <c r="D303" s="45" t="s">
+        <v>918</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2">
+        <v>1</v>
+      </c>
+      <c r="G303" s="2">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="46" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.15/game_module_config_cjj.xlsx
+++ b/config_12.15/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3853,6 +3853,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3890,6 +3891,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4482,10 +4484,10 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A303" sqref="A303"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6154,7 +6156,7 @@
         <v>190</v>
       </c>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
